--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2311.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2311.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>2.213069966189723</v>
+        <v>0.8513891100883484</v>
       </c>
       <c r="B1">
-        <v>1.793771520537401</v>
+        <v>1.361099243164062</v>
       </c>
       <c r="C1">
-        <v>1.583091368603361</v>
+        <v>2.240350484848022</v>
       </c>
       <c r="D1">
-        <v>1.729868722818866</v>
+        <v>2.302311897277832</v>
       </c>
       <c r="E1">
-        <v>2.132172628045317</v>
+        <v>1.793417811393738</v>
       </c>
     </row>
   </sheetData>
